--- a/biology/Médecine/James_Herrick/James_Herrick.xlsx
+++ b/biology/Médecine/James_Herrick/James_Herrick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Herrick (1861-1954) est le médecin qui a fait la première description médicale de la drépanocytose en examinant un étudiant noir âgé de 20 ans, hospitalisé pour toux et fièvre en 1904.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herrick est né à Oak Park, Illinois, ses parents étaient Origen White Herrick et Dora Kettlestrings Herrick[1]. Il étudia à Oak Park and River Forest High School puis à Rock River Seminary. Il reçoit un Baccalauréat universitaire de l'université du Michigan en 1882, après quoi il a enseigné à Peoria et à Oak Park[2].
-Herrick épousa Zellah P Davies d'Oak Park[3]. Après plusieurs années d'enseignement dans les écoles publiques il entre au Rush Medical College, et reçoit un diplôme médical en 1888. Il est interne à Cook County Hospital, puis il ouvre un cabinet privé près de Chicago. Il enseigne également à temps partiel au Rush College, il était déclaré en tant que professeur à temps complet de 1900 à 1927. Il faisait également partie de l'équipe du Presbyterian Hospital à Chicago de 1895 à 1945[3][source insuffisante].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herrick est né à Oak Park, Illinois, ses parents étaient Origen White Herrick et Dora Kettlestrings Herrick. Il étudia à Oak Park and River Forest High School puis à Rock River Seminary. Il reçoit un Baccalauréat universitaire de l'université du Michigan en 1882, après quoi il a enseigné à Peoria et à Oak Park.
+Herrick épousa Zellah P Davies d'Oak Park. Après plusieurs années d'enseignement dans les écoles publiques il entre au Rush Medical College, et reçoit un diplôme médical en 1888. Il est interne à Cook County Hospital, puis il ouvre un cabinet privé près de Chicago. Il enseigne également à temps partiel au Rush College, il était déclaré en tant que professeur à temps complet de 1900 à 1927. Il faisait également partie de l'équipe du Presbyterian Hospital à Chicago de 1895 à 1945[source insuffisante].
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Découvertes médicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Herrick étudie et enseigne dans plusieurs hôpitaux de Chicago. Sa première découverte, en 1904, fut la découverte de cellules de sang rouge en forme de faucille dans le sang d'un étudiant en médecine à la Grenade. La description de Herrick de la maladie de l'étudiant était connue pendant de nombreuses années sous le nom du Syndrome d'Herrick, elle est maintenant connue sous le nom de drépanocytose. Cette maladie est très présente en Afrique de l'ouest.
-La seconde découverte majeure d'Herrick était un article historique sur l'infarctus du myocarde (en anglais : heart attack) dans le Journal of the American Medical Association en 1912[4]. Il proposa l'hypothèse que le thrombosis dans l'artère coronaire conduit à des symptômes et des anomalies de crises cardiaques et que ce n'était pas forcément fatal. Alors qu'Herrick n'était pas le premier à proposer cette hypothèse, son article était le plus influent, cependant il reçut une attention limitée. En 1918 il fut le premier à encourager l'électrocardiographie dans le diagnostic de l'infarctus du myocarde.
-Herrick n'est pas associé à la génétique, mais ses découvertes ont révélé des maladies d'origine génétique, sa contribution a aidé d'autres chercheurs dans les recherches sur les maladies génétiques[5].
+La seconde découverte majeure d'Herrick était un article historique sur l'infarctus du myocarde (en anglais : heart attack) dans le Journal of the American Medical Association en 1912. Il proposa l'hypothèse que le thrombosis dans l'artère coronaire conduit à des symptômes et des anomalies de crises cardiaques et que ce n'était pas forcément fatal. Alors qu'Herrick n'était pas le premier à proposer cette hypothèse, son article était le plus influent, cependant il reçut une attention limitée. En 1918 il fut le premier à encourager l'électrocardiographie dans le diagnostic de l'infarctus du myocarde.
+Herrick n'est pas associé à la génétique, mais ses découvertes ont révélé des maladies d'origine génétique, sa contribution a aidé d'autres chercheurs dans les recherches sur les maladies génétiques.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A Handbook of Medical Diagnosis for Students, 1895, 435 pages
-James Bryan Herrick - an appreciation - a compilation of Herrick papers, edited by William W. Holmes.  Published in 1935 LCCN: 36014236 LC: R154.H38H6[6]</t>
+James Bryan Herrick - an appreciation - a compilation of Herrick papers, edited by William W. Holmes.  Published in 1935 LCCN: 36014236 LC: R154.H38H6</t>
         </is>
       </c>
     </row>
@@ -607,14 +625,16 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herrick était président de plusieurs associations médicales, dont la Chicago Pathological Society, la Chicago Society of Internal Medicine, l'Association of American Physicians, l'American Heart Association, l'Institute of Medicine et la Society of Medical History[3].
-Herrick reçut un diplôme honorifique (Master en Arts) de l'université du Michigan en 1907 ainsi qu'un doctorat en Loi[Quoi ?] en 1932[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herrick était président de plusieurs associations médicales, dont la Chicago Pathological Society, la Chicago Society of Internal Medicine, l'Association of American Physicians, l'American Heart Association, l'Institute of Medicine et la Society of Medical History.
+Herrick reçut un diplôme honorifique (Master en Arts) de l'université du Michigan en 1907 ainsi qu'un doctorat en Loi[Quoi ?] en 1932.
 Herrick reçut la médaille George H. Kober de l'Association of American Physicians en 1930.
-Herrick reçut la croix du service distingué de l'Association médicale américaine en 1939[7].
-Herrick voyagea plusieurs fois en Europe pour améliorer son formation médicale[3]. Il participa activement au Club de littérature de Chicago pendant toute sa vie. Il était un lecteur assidu de Geoffrey Chaucer.
-Ses papiers furent donnés au Rush Medical College après sa mort[8]. Une partie fut aussi donné à l'université de Chicago avant sa mort[9].
+Herrick reçut la croix du service distingué de l'Association médicale américaine en 1939.
+Herrick voyagea plusieurs fois en Europe pour améliorer son formation médicale. Il participa activement au Club de littérature de Chicago pendant toute sa vie. Il était un lecteur assidu de Geoffrey Chaucer.
+Ses papiers furent donnés au Rush Medical College après sa mort. Une partie fut aussi donné à l'université de Chicago avant sa mort.
 </t>
         </is>
       </c>
